--- a/Examples/ProjectAdministration/ProjectAdministration.xlsx
+++ b/Examples/ProjectAdministration/ProjectAdministration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>[Projects]</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Create an Alpha board for the customer</t>
   </si>
   <si>
-    <t>12;31;2013</t>
-  </si>
-  <si>
     <t>p10012</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>further development of the board to Beta</t>
   </si>
   <si>
-    <t>02;15;2014</t>
-  </si>
-  <si>
     <t>2014.03</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Make board production-ready</t>
   </si>
   <si>
-    <t>07;15;2014</t>
-  </si>
-  <si>
     <t>2014.04</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
   </si>
   <si>
     <t>Joosten, get us back to earth please!</t>
-  </si>
-  <si>
-    <t>04;17;1970</t>
   </si>
   <si>
     <t>p10008</t>
@@ -377,20 +365,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,6 +379,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,491 +480,476 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.0459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.3724489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>41685</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>41835</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>25675</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B19" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="0"/>
-    </row>
-    <row r="26" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="B38" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="C38" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="D38" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="8" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="D39" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
